--- a/experiment result cnn/8192_0.6_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/8192_0.6_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.0004007999935743488</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0003003419642745502</v>
+        <v>0.0006608819953747272</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0005607997550643757</v>
+        <v>0.002203756229242289</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.000799999935975e-05</v>
+        <v>0.001430080968996455</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01356223421288837</v>
+        <v>0.004648885600637594</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0207785210710244</v>
+        <v>0.09821275218553599</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01380202031276291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0003605158427374976</v>
+        <v>0.0007810779952394548</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007587386286647265</v>
+        <v>0.02086419987845094</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02003471072170531</v>
+        <v>0.02199399963868573</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.000600683785716205</v>
+        <v>0.008639835237554055</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0006605978689405757</v>
+        <v>0.002200101919103348</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09502048870158798</v>
+        <v>0.001284475832940895</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.000199999995999e-05</v>
+        <v>0.001064033848488112</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.006283987170922758</v>
+        <v>0.0005012499842966797</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002828807071315197</v>
+        <v>0.0001800539999864298</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.07366705921564445</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01187516487668603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.006092051827652938</v>
+        <v>0.012152387846449</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001801619672137324</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01137227909727769</v>
+        <v>0.0005412539842965996</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03683871010099049</v>
+        <v>0.0009215279888075334</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.00506639909344156</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.000799999935975e-05</v>
+        <v>0.006096490711500879</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8.001999278518825e-05</v>
+        <v>0.001773826069868294</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005854323684483943</v>
+        <v>0.02813850074311389</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.001004989525033651</v>
+        <v>0.001808091642575911</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.008482241396592979</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0728555579831501</v>
+        <v>0.00349075360854597</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.001023650658510764</v>
+        <v>0.0002001999995991992</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.000761542505233909</v>
+        <v>0.004079138724152986</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0003001499541531208</v>
+        <v>0.006583080520042724</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0007024477014522682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0001000339967842671</v>
+        <v>0.001488759230914254</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0005414556167176031</v>
+        <v>0.01140495892391869</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0001200719855106088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0006815146377323713</v>
+        <v>0.01330701610597688</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.000799919863942e-05</v>
+        <v>0.002289035619355604</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01059159353516645</v>
+        <v>0.0001800699999716931</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0002803917617962412</v>
+        <v>0.02227029232613867</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.002879578787369449</v>
+        <v>0.001549897025964116</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.002241235726458716</v>
+        <v>0.0005411619866644259</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.0003004499979689159</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.004490617808247882</v>
+        <v>0.02867576661904234</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01435392077897492</v>
+        <v>0.01103588286463633</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.000399899925974e-05</v>
+        <v>0.000320307999165285</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.003981888245162608</v>
+        <v>0.0002603379988545858</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0005003859450395338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0009026960575324261</v>
+        <v>0.002194168316798332</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09800144411700741</v>
+        <v>0.02452467119811426</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0002001997583477761</v>
+        <v>0.01377519046738472</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.002776815195466994</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0005608515008013919</v>
+        <v>0.003359533065754507</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01008010977004042</v>
+        <v>0.004716633088843575</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0006219190394729358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.004982664354571749</v>
+        <v>0.0284335916487786</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>0.01342662397376705</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.003594662283884975</v>
+        <v>0.1216958280645975</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03123415437825867</v>
+        <v>0.002462918839868435</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01414821284153925</v>
+        <v>0.00126274195964267</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.001264766099874089</v>
+        <v>0.01766126399046034</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01169614072044326</v>
+        <v>0.00305044366170393</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01249866251059688</v>
+        <v>0.002673285128838752</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.176053530567501</v>
+        <v>0.004231870992631735</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0001200719566182954</v>
+        <v>0.09992266792935335</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0257601309773137</v>
+        <v>0.009262968261390347</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.007396998154359664</v>
+        <v>0.02194824287968662</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09016376754101045</v>
+        <v>0.006608717621962479</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.0001801059999031852</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06053894460379224</v>
+        <v>0.003942362288561635</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.000199939953983e-05</v>
+        <v>0.07914446051648924</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.05493965167738993</v>
+        <v>0.02906862181106039</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0005009125667932037</v>
+        <v>0.004188775379177299</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.05515202191596395</v>
+        <v>0.0285714334258599</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.002058056083782845</v>
+        <v>0.006863628521765993</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001044994449502242</v>
+        <v>0.0005609279934102464</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0001400499899699358</v>
+        <v>0.0005409099903817548</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1738856165567331</v>
+        <v>0.003234907905184788</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01937513100231274</v>
+        <v>0.02218156413095864</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01183037596731008</v>
+        <v>0.02847374420709201</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.02436958141055964</v>
+        <v>0.07159701613743027</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.06358758351398328</v>
+        <v>0.001122315965787101</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01284004405747428</v>
+        <v>0.00154930913300866</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.006729153225549138</v>
+        <v>0.01128084859439671</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.02931412143350753</v>
+        <v>0.04098026202195645</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.00638963169050664</v>
+        <v>0.000320275999402782</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.002930422272292086</v>
+        <v>0.03415700402257608</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0002001999393406412</v>
+        <v>0.007546328736711605</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.02372236127655714</v>
+        <v>0.00179292833501177</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02224510148945081</v>
+        <v>0.05978718252342269</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.004776092697592283</v>
+        <v>0.04818249281649649</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.02728470873257399</v>
+        <v>0.01594343855923152</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0004208810127266402</v>
+        <v>0.05778897382434779</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.007242683904319806</v>
+        <v>0.109735096166251</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0002401479605531564</v>
+        <v>0.004342940626393081</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07028898518416189</v>
+        <v>0.1791061193561008</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.004349935532803224</v>
+        <v>0.00394790366434962</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.001283126215688279</v>
+        <v>0.120510215592209</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.02712283533852229</v>
+        <v>0.2237855626992549</v>
       </c>
     </row>
   </sheetData>
